--- a/Digital IC Library/Digital IC DataBase.xlsx
+++ b/Digital IC Library/Digital IC DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Little logic (TI)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>CD4000</t>
+  </si>
+  <si>
+    <t>SN74HC08</t>
+  </si>
+  <si>
+    <t>SN74HC08D</t>
+  </si>
+  <si>
+    <t>SN74HC08 Quadruple 2-Input Positive-AND Gates</t>
   </si>
 </sst>
 </file>
@@ -328,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -360,9 +369,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,25 +656,25 @@
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="99.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="91.5703125" customWidth="1"/>
-    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="99.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="91.54296875" customWidth="1"/>
+    <col min="15" max="15" width="45.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -766,7 +772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -817,7 +823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -868,7 +874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -919,7 +925,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -970,7 +976,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -1123,7 +1129,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
@@ -1276,7 +1282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
@@ -1327,7 +1333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
@@ -1378,7 +1384,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -1429,82 +1435,82 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I41" s="6"/>
     </row>
   </sheetData>
@@ -1517,29 +1523,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="65" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="49.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="63.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="74.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1586,7 +1592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1637,9 +1643,34 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>CONCATENATE(C3,"(",H3,")")</f>
+        <v>SN74HC08(SO-14 Narrow)</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>15</v>
@@ -1651,8 +1682,19 @@
         <f t="shared" ref="L3:L5" ca="1" si="0">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\Logic Guide (TI).pdf")</f>
         <v>C:\Altium Libraries\Digital IC Library\DataSheet\Logic Guide (TI).pdf</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M3" s="12" t="str">
+        <f>C3</f>
+        <v>SN74HC08</v>
+      </c>
+      <c r="N3" t="str">
+        <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\SN74HC08(TI).pdf")</f>
+        <v>C:\Altium Libraries\Digital IC Library\DataSheet\SN74HC08(TI).pdf</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -1667,7 +1709,7 @@
         <v>C:\Altium Libraries\Digital IC Library\DataSheet\Logic Guide (TI).pdf</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -1713,7 +1755,7 @@
         <f ca="1">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\CD4047(TI).pdf")</f>
         <v>C:\Altium Libraries\Digital IC Library\DataSheet\CD4047(TI).pdf</v>
       </c>
-      <c r="O5" s="14" t="str">
+      <c r="O5" s="8" t="str">
         <f>CONCATENATE(M5, C5," ( ",H5,", ",J5,")")</f>
         <v>CMOS Low-Power Monostable/Astable MultivibratorCD4047 ( SO-14 Narrow, TI)</v>
       </c>
